--- a/Test.xlsx
+++ b/Test.xlsx
@@ -157,7 +157,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -249,7 +249,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,9 +796,6 @@
         <f t="shared" si="0"/>
         <v>285670000</v>
       </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -819,14 +816,11 @@
       </c>
       <c r="D9" s="7">
         <f>D8-'Lai No Hang Thang'!D8-Luong!M8+Luong!C8</f>
-        <v>91200000</v>
+        <v>99200000</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>365670000</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -848,14 +842,11 @@
       </c>
       <c r="D10" s="7">
         <f>D9-'Lai No Hang Thang'!D9-Luong!M9+Luong!C9</f>
-        <v>105200000</v>
+        <v>123200000</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>445670000</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -880,14 +871,11 @@
       </c>
       <c r="D11" s="7">
         <f>D10-'Lai No Hang Thang'!D10-Luong!M10+Luong!C10</f>
-        <v>107200000</v>
+        <v>127200000</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>525670000</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -909,14 +897,11 @@
       </c>
       <c r="D12" s="7">
         <f>D11-'Lai No Hang Thang'!D11-Luong!M11+Luong!C11</f>
-        <v>127200000</v>
+        <v>151200000</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>605670000</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -938,14 +923,11 @@
       </c>
       <c r="D13" s="7">
         <f>D12-'Lai No Hang Thang'!D12-Luong!M12+Luong!C12</f>
-        <v>145200000</v>
+        <v>175200000</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>685670000</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1437,7 +1419,7 @@
       </c>
       <c r="B8">
         <f>'Cac Khoan No'!$B$2*Luong!H8/100</f>
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>'Cac Khoan No'!$B$3*Luong!I8/100</f>
@@ -1445,7 +1427,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,7 +1436,7 @@
       </c>
       <c r="B9">
         <f>'Cac Khoan No'!$B$2*Luong!H9/100</f>
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f>'Cac Khoan No'!$B$3*Luong!I9/100</f>
@@ -1462,7 +1444,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,7 +1453,7 @@
       </c>
       <c r="B10">
         <f>'Cac Khoan No'!$B$2*Luong!H10/100</f>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f>'Cac Khoan No'!$B$3*Luong!I10/100</f>
@@ -1479,7 +1461,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>22000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1470,7 @@
       </c>
       <c r="B11">
         <f>'Cac Khoan No'!$B$2*Luong!H11/100</f>
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f>'Cac Khoan No'!$B$3*Luong!I11/100</f>
@@ -1496,7 +1478,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,7 +1487,7 @@
       </c>
       <c r="B12">
         <f>'Cac Khoan No'!$B$2*Luong!H12/100</f>
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f>'Cac Khoan No'!$B$3*Luong!I12/100</f>
@@ -1513,7 +1495,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,7 +1504,7 @@
       </c>
       <c r="B13">
         <f>'Cac Khoan No'!$B$2*Luong!H13/100</f>
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f>'Cac Khoan No'!$B$3*Luong!I13/100</f>
@@ -1530,7 +1512,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>28000000</v>
+        <v>20000000</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1525,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7">
         <f>SUM('Chi Phi'!B11:E11)</f>
-        <v>16000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
       </c>
       <c r="D12" s="7">
         <f>D11-'Lai No Hang Thang'!D11-Luong!M11+Luong!C11</f>
-        <v>151200000</v>
+        <v>127200000</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="D13" s="7">
         <f>D12-'Lai No Hang Thang'!D12-Luong!M12+Luong!C12</f>
-        <v>175200000</v>
+        <v>151200000</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,16 +1137,16 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>4000000</v>
+        <v>40000000</v>
       </c>
       <c r="C11">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,14 +927,16 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>685670000</v>
+        <v>185670000</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7">
+        <v>500000000</v>
+      </c>
       <c r="M13" s="7">
         <f>SUM('Chi Phi'!B13:E13)</f>
         <v>16000000</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>Ngân hàng 2</t>
+  </si>
+  <si>
+    <t>Chu kỳ lãi</t>
+  </si>
+  <si>
+    <t>6/2023</t>
+  </si>
+  <si>
+    <t>Nợ</t>
+  </si>
+  <si>
+    <t>Lương sau</t>
+  </si>
+  <si>
+    <t>Tiền để trả nợ sau</t>
   </si>
 </sst>
 </file>
@@ -159,19 +174,13 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -229,9 +238,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,11 +254,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -531,28 +537,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
+    <col min="10" max="11" width="11.109375" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -568,378 +574,501 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C2" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1.2</v>
-      </c>
-      <c r="J2" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7">
+      <c r="B2" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(D2&lt;0,0,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f>IF(D2&lt;0,E2+D2,E2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
         <f>SUM('Chi Phi'!B2:E2)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C3" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D3" s="7">
-        <f>D2-'Lai No Hang Thang'!D2-Luong!M2+Luong!C2</f>
-        <v>21600000</v>
-      </c>
-      <c r="E3" s="7">
-        <f>B3+E2-J2+K3-L3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>75000000</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7">
+      <c r="B3" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D3" s="5">
+        <f>F2-'Lai No Hang Thang'!D2-Luong!O2+Luong!C2</f>
+        <v>22000000</v>
+      </c>
+      <c r="E3" s="5">
+        <f>B3+G2-L2+M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F14" si="0">IF(D3&lt;0,0,D3)</f>
+        <v>22000000</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G14" si="1">IF(D3&lt;0,E3+D3,E3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <f>SUM('Chi Phi'!B3:E3)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>186000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D4" s="7">
-        <f>D3-'Lai No Hang Thang'!D3-Luong!M3+Luong!C3</f>
-        <v>41600000</v>
-      </c>
-      <c r="E4" s="7">
-        <f>B4+E3-J3+K4-L4</f>
-        <v>86920000</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>81920000</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7">
+      <c r="B4" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D4" s="5">
+        <f>F3-'Lai No Hang Thang'!D3-Luong!O3+Luong!C3</f>
+        <v>-104000000</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E14" si="2">B4+G3-L3+M4-N4</f>
+        <v>110000000</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
         <f>SUM('Chi Phi'!B4:E4)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D5" s="7">
-        <f>D4-'Lai No Hang Thang'!D4-Luong!M4+Luong!C4</f>
-        <v>39600000</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" ref="E5:E13" si="0">B5+E4-J4+K5-L5</f>
-        <v>166920000</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
+      <c r="B5" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D5" s="5">
+        <f>F4-'Lai No Hang Thang'!D4-Luong!O4+Luong!C4</f>
+        <v>33600000</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>6000000</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>33600000</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
         <f>SUM('Chi Phi'!B5:E5)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C6" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D6" s="7">
-        <f>D5-'Lai No Hang Thang'!D5-Luong!M5+Luong!C5</f>
-        <v>55600000</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>246920000</v>
-      </c>
-      <c r="H6">
-        <v>1.2</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
+      <c r="B6" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D6" s="5">
+        <f>F5-'Lai No Hang Thang'!D5-Luong!O5+Luong!C5</f>
+        <v>69600000</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>304800000</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>69600000</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>304800000</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>178800000</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <f>SUM('Chi Phi'!B6:E6)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C7" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D7" s="7">
-        <f>D6-'Lai No Hang Thang'!D6-Luong!M6+Luong!C6</f>
-        <v>77200000</v>
-      </c>
-      <c r="E7" s="7">
-        <f>B7+E6-J6+K7-L7</f>
-        <v>205670000</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>78750000</v>
-      </c>
-      <c r="L7" s="7">
-        <v>200000000</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="B7" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D7" s="5">
+        <f>F6-'Lai No Hang Thang'!D6-Luong!O6+Luong!C6</f>
+        <v>105600000</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>304800000</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>105600000</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>304800000</v>
+      </c>
+      <c r="J7">
+        <v>1.2</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="O7" s="5">
         <f>SUM('Chi Phi'!B7:E7)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C8" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D8" s="7">
-        <f>D7-'Lai No Hang Thang'!D7-Luong!M7+Luong!C7</f>
-        <v>75200000</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>285670000</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
+      <c r="B8" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D8" s="5">
+        <f>F7-'Lai No Hang Thang'!D7-Luong!O7+Luong!C7</f>
+        <v>140160000</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>434900000</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>140160000</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>434900000</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>10100000</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
         <f>SUM('Chi Phi'!B8:E8)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C9" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D9" s="7">
-        <f>D8-'Lai No Hang Thang'!D8-Luong!M8+Luong!C8</f>
-        <v>99200000</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>365670000</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7">
+      <c r="B9" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D9" s="5">
+        <f>F8-'Lai No Hang Thang'!D8-Luong!O8+Luong!C8</f>
+        <v>162160000</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>676100000</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>162160000</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>676100000</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>121200000</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
         <f>SUM('Chi Phi'!B9:E9)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C10" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D10" s="7">
-        <f>D9-'Lai No Hang Thang'!D9-Luong!M9+Luong!C9</f>
-        <v>123200000</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>445670000</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
+      <c r="B10" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="D10" s="5">
+        <f>F9-'Lai No Hang Thang'!D9-Luong!O9+Luong!C9</f>
+        <v>219760000</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>776100000</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>219760000</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>776100000</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
         <f>SUM('Chi Phi'!B10:E10)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C11" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D11" s="7">
-        <f>D10-'Lai No Hang Thang'!D10-Luong!M10+Luong!C10</f>
-        <v>127200000</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>525670000</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7">
+      <c r="B11" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45000000</v>
+      </c>
+      <c r="D11" s="5">
+        <f>F10-'Lai No Hang Thang'!D10-Luong!O10+Luong!C10</f>
+        <v>249760000</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>866100000</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>249760000</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>866100000</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
         <f>SUM('Chi Phi'!B11:E11)</f>
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C12" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D12" s="7">
-        <f>D11-'Lai No Hang Thang'!D11-Luong!M11+Luong!C11</f>
-        <v>127200000</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>605670000</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7">
+      <c r="B12" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>65000000</v>
+      </c>
+      <c r="D12" s="5">
+        <f>F11-'Lai No Hang Thang'!D11-Luong!O11+Luong!C11</f>
+        <v>276760000</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>996100000</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>276760000</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>996100000</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
         <f>SUM('Chi Phi'!B12:E12)</f>
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="C13" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="D13" s="7">
-        <f>D12-'Lai No Hang Thang'!D12-Luong!M12+Luong!C12</f>
-        <v>151200000</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>185670000</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7">
-        <v>500000000</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="B13" s="5">
+        <v>24000000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="D13" s="5">
+        <f>F12-'Lai No Hang Thang'!D12-Luong!O12+Luong!C12</f>
+        <v>315760000</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>1020100000</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>315760000</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>1020100000</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
         <f>SUM('Chi Phi'!B13:E13)</f>
-        <v>16000000</v>
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D14" s="5">
+        <f>F13-'Lai No Hang Thang'!D13-Luong!O13+Luong!C13</f>
+        <v>322960000</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>940100000</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>322960000</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>940100000</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="N14" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O14" s="5">
+        <f>SUM('Chi Phi'!B14:E14)</f>
+        <v>24000000</v>
       </c>
     </row>
   </sheetData>
@@ -949,19 +1078,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -985,204 +1113,221 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>4000000</v>
-      </c>
-      <c r="C2">
-        <v>4000000</v>
-      </c>
-      <c r="D2">
-        <v>4000000</v>
-      </c>
-      <c r="E2">
-        <v>4000000</v>
+      <c r="B2" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>4000000</v>
-      </c>
-      <c r="C3">
-        <v>4000000</v>
-      </c>
-      <c r="D3">
-        <v>4000000</v>
-      </c>
-      <c r="E3">
-        <v>4000000</v>
+      <c r="B3" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>60000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>4000000</v>
-      </c>
-      <c r="C4">
-        <v>4000000</v>
-      </c>
-      <c r="D4">
-        <v>4000000</v>
-      </c>
-      <c r="E4">
-        <v>4000000</v>
+      <c r="B4" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>4000000</v>
-      </c>
-      <c r="C5">
-        <v>4000000</v>
-      </c>
-      <c r="D5">
-        <v>4000000</v>
-      </c>
-      <c r="E5">
-        <v>4000000</v>
+      <c r="B5" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>4000000</v>
-      </c>
-      <c r="C6">
-        <v>4000000</v>
-      </c>
-      <c r="D6">
-        <v>4000000</v>
-      </c>
-      <c r="E6">
-        <v>4000000</v>
+      <c r="B6" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>4000000</v>
-      </c>
-      <c r="C7">
-        <v>4000000</v>
-      </c>
-      <c r="D7">
-        <v>4000000</v>
-      </c>
-      <c r="E7">
-        <v>4000000</v>
+      <c r="B7" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>4000000</v>
-      </c>
-      <c r="C8">
-        <v>4000000</v>
-      </c>
-      <c r="D8">
-        <v>4000000</v>
-      </c>
-      <c r="E8">
-        <v>4000000</v>
+      <c r="B8" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
-        <v>4000000</v>
-      </c>
-      <c r="C9">
-        <v>4000000</v>
-      </c>
-      <c r="D9">
-        <v>4000000</v>
-      </c>
-      <c r="E9">
-        <v>4000000</v>
+      <c r="B9" s="5">
+        <v>600000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>600000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>600000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
-        <v>4000000</v>
-      </c>
-      <c r="C10">
-        <v>4000000</v>
-      </c>
-      <c r="D10">
-        <v>4000000</v>
-      </c>
-      <c r="E10">
-        <v>4000000</v>
+      <c r="B10" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5000000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>40000000</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="B11" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4500000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>4000000</v>
-      </c>
-      <c r="C12">
-        <v>4000000</v>
-      </c>
-      <c r="D12">
-        <v>4000000</v>
-      </c>
-      <c r="E12">
-        <v>4000000</v>
+      <c r="B12" s="5">
+        <v>6500000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6500000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6500000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6500000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>4000000</v>
-      </c>
-      <c r="C13">
-        <v>4000000</v>
-      </c>
-      <c r="D13">
-        <v>4000000</v>
-      </c>
-      <c r="E13">
-        <v>4000000</v>
+      <c r="B13" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6000000</v>
       </c>
     </row>
   </sheetData>
@@ -1192,90 +1337,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>80000000</v>
+      <c r="C2" s="5">
+        <v>120000000</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>1920000</v>
-      </c>
-      <c r="G2">
-        <v>81920000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>58800000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>178800000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
-        <v>75000000</v>
+      <c r="C3" s="5">
+        <v>10000000</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>3750000</v>
-      </c>
-      <c r="G3">
-        <v>78750000</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>121200000</v>
       </c>
     </row>
   </sheetData>
@@ -1285,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,7 +1481,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1309,25 +1490,25 @@
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <f>'Cac Khoan No'!$B$2*Luong!H2/100</f>
-        <v>2400000</v>
+        <f>'Cac Khoan No'!$B$2*Luong!J2/100</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>'Cac Khoan No'!$B$3*Luong!I2/100</f>
-        <v>0</v>
+        <f>'Cac Khoan No'!$B$3*Luong!K2/100</f>
+        <v>14000000</v>
       </c>
       <c r="D2">
         <f>SUM(B2:C2)</f>
-        <v>2400000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,16 +1516,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <f>'Cac Khoan No'!$B$2*Luong!H3/100</f>
-        <v>4000000</v>
+        <f>'Cac Khoan No'!$B$2*Luong!J3/100</f>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>'Cac Khoan No'!$B$3*Luong!I3/100</f>
+        <f>'Cac Khoan No'!$B$3*Luong!K3/100</f>
         <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" si="0">SUM(B3:C3)</f>
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,16 +1533,16 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <f>'Cac Khoan No'!$B$2*Luong!H4/100</f>
-        <v>6000000</v>
+        <f>'Cac Khoan No'!$B$2*Luong!J4/100</f>
+        <v>2400000</v>
       </c>
       <c r="C4">
-        <f>'Cac Khoan No'!$B$3*Luong!I4/100</f>
-        <v>20000000</v>
+        <f>'Cac Khoan No'!$B$3*Luong!K4/100</f>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>26000000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,16 +1550,16 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <f>'Cac Khoan No'!$B$2*Luong!H5/100</f>
-        <v>8000000</v>
+        <f>'Cac Khoan No'!$B$2*Luong!J5/100</f>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>'Cac Khoan No'!$B$3*Luong!I5/100</f>
+        <f>'Cac Khoan No'!$B$3*Luong!K5/100</f>
         <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,16 +1567,16 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <f>'Cac Khoan No'!$B$2*Luong!H6/100</f>
-        <v>2400000</v>
+        <f>'Cac Khoan No'!$B$2*Luong!J6/100</f>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'Cac Khoan No'!$B$3*Luong!I6/100</f>
+        <f>'Cac Khoan No'!$B$3*Luong!K6/100</f>
         <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1403,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>'Cac Khoan No'!$B$2*Luong!H7/100</f>
-        <v>6000000</v>
+        <f>'Cac Khoan No'!$B$2*Luong!J7/100</f>
+        <v>1440000</v>
       </c>
       <c r="C7">
-        <f>'Cac Khoan No'!$B$3*Luong!I7/100</f>
-        <v>20000000</v>
+        <f>'Cac Khoan No'!$B$3*Luong!K7/100</f>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>26000000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,16 +1601,16 @@
         <v>29</v>
       </c>
       <c r="B8">
-        <f>'Cac Khoan No'!$B$2*Luong!H8/100</f>
+        <f>'Cac Khoan No'!$B$2*Luong!J8/100</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>'Cac Khoan No'!$B$3*Luong!I8/100</f>
-        <v>0</v>
+        <f>'Cac Khoan No'!$B$3*Luong!K8/100</f>
+        <v>14000000</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,11 +1618,11 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <f>'Cac Khoan No'!$B$2*Luong!H9/100</f>
+        <f>'Cac Khoan No'!$B$2*Luong!J9/100</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>'Cac Khoan No'!$B$3*Luong!I9/100</f>
+        <f>'Cac Khoan No'!$B$3*Luong!K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
@@ -1454,16 +1635,16 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <f>'Cac Khoan No'!$B$2*Luong!H10/100</f>
+        <f>'Cac Khoan No'!$B$2*Luong!J10/100</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>'Cac Khoan No'!$B$3*Luong!I10/100</f>
-        <v>20000000</v>
+        <f>'Cac Khoan No'!$B$3*Luong!K10/100</f>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,11 +1652,11 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <f>'Cac Khoan No'!$B$2*Luong!H11/100</f>
+        <f>'Cac Khoan No'!$B$2*Luong!J11/100</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>'Cac Khoan No'!$B$3*Luong!I11/100</f>
+        <f>'Cac Khoan No'!$B$3*Luong!K11/100</f>
         <v>0</v>
       </c>
       <c r="D11">
@@ -1488,11 +1669,11 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <f>'Cac Khoan No'!$B$2*Luong!H12/100</f>
+        <f>'Cac Khoan No'!$B$2*Luong!J12/100</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>'Cac Khoan No'!$B$3*Luong!I12/100</f>
+        <f>'Cac Khoan No'!$B$3*Luong!K12/100</f>
         <v>0</v>
       </c>
       <c r="D12">
@@ -1505,16 +1686,21 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>'Cac Khoan No'!$B$2*Luong!H13/100</f>
+        <f>'Cac Khoan No'!$B$2*Luong!J13/100</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>'Cac Khoan No'!$B$3*Luong!I13/100</f>
-        <v>20000000</v>
+        <f>'Cac Khoan No'!$B$3*Luong!K13/100</f>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>20000000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1527,13 +1713,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1564,14 +1750,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>200000000</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1581,20 +1767,20 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>500000000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="B3" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
